--- a/Monster-India/src/main/java/TestData/MonsterTestData.xlsx
+++ b/Monster-India/src/main/java/TestData/MonsterTestData.xlsx
@@ -19,18 +19,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="2">
   <si>
     <t>rkschiluka@gmail.com</t>
   </si>
   <si>
     <t>laxmisahasra</t>
-  </si>
-  <si>
-    <t>rkchiluka@gmail.com</t>
-  </si>
-  <si>
-    <t>sahasralaxmi</t>
   </si>
 </sst>
 </file>
@@ -362,7 +356,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -381,7 +375,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -392,7 +386,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
